--- a/sub-04AM/psych_RFT_COTE_sub-04AM.xlsx
+++ b/sub-04AM/psych_RFT_COTE_sub-04AM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/sub-04AM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\sub-04AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B1535F3E-C9E0-416E-8DD8-C867F3503CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB9D2AE-E2E1-4763-9288-01BEC0C07FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="psych_RFT_COTE_sub-04AM (2)" sheetId="2" r:id="rId1"/>
@@ -20,13 +20,25 @@
   <definedNames>
     <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'psych_RFT_COTE_sub-04AM (2)'!$A$1:$S$14</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Requête - psych_RFT_COTE_sub-04AM" description="Connexion à la requête « psych_RFT_COTE_sub-04AM » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Requête - psych_RFT_COTE_sub-04AM" description="Connexion à la requête « psych_RFT_COTE_sub-04AM » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=psych_RFT_COTE_sub-04AM;Extended Properties=&quot;&quot;" command="SELECT * FROM [psych_RFT_COTE_sub-04AM]"/>
   </connection>
 </connections>
@@ -188,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -884,7 +896,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1068,7 +1080,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1053739391"/>
@@ -1127,7 +1139,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1053745215"/>
@@ -1175,7 +1187,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1733,16 +1745,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1771,7 +1783,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DonnéesExternes_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="20">
     <queryTableFields count="19">
       <queryTableField id="1" name="Essai" tableColumnId="1"/>
@@ -1799,28 +1811,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="psych_RFT_COTE_sub_04AM" displayName="psych_RFT_COTE_sub_04AM" ref="A1:S14" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:S14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="psych_RFT_COTE_sub_04AM" displayName="psych_RFT_COTE_sub_04AM" ref="A1:S14" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:S14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" uniqueName="1" name="Essai" queryTableFieldId="1" dataDxfId="18"/>
-    <tableColumn id="2" uniqueName="2" name="Cond_0 -7/-45" queryTableFieldId="2" dataDxfId="17"/>
-    <tableColumn id="3" uniqueName="3" name="Cond_1 -4/-40" queryTableFieldId="3" dataDxfId="16"/>
-    <tableColumn id="4" uniqueName="4" name="Cond_2 -2/-35" queryTableFieldId="4" dataDxfId="15"/>
-    <tableColumn id="5" uniqueName="5" name="Cond_3 -1/-30" queryTableFieldId="5" dataDxfId="14"/>
-    <tableColumn id="6" uniqueName="6" name="Cond_4 0/-25" queryTableFieldId="6" dataDxfId="13"/>
-    <tableColumn id="7" uniqueName="7" name="Cond_5 1/-20" queryTableFieldId="7" dataDxfId="12"/>
-    <tableColumn id="8" uniqueName="8" name="Cond_6 2/-15" queryTableFieldId="8" dataDxfId="11"/>
-    <tableColumn id="9" uniqueName="9" name="Cond_7 4/-10" queryTableFieldId="9" dataDxfId="10"/>
-    <tableColumn id="10" uniqueName="10" name="Cond_8 7/-5" queryTableFieldId="10" dataDxfId="9"/>
-    <tableColumn id="11" uniqueName="11" name="Cond_9 -7/0" queryTableFieldId="11" dataDxfId="8"/>
-    <tableColumn id="12" uniqueName="12" name="Cond_10 -4/5" queryTableFieldId="12" dataDxfId="7"/>
-    <tableColumn id="13" uniqueName="13" name="Cond_11 -2/10" queryTableFieldId="13" dataDxfId="6"/>
-    <tableColumn id="14" uniqueName="14" name="Cond_12 -1/15" queryTableFieldId="14" dataDxfId="5"/>
-    <tableColumn id="15" uniqueName="15" name="Cond_13 0/20" queryTableFieldId="15" dataDxfId="4"/>
-    <tableColumn id="16" uniqueName="16" name="Cond_14 1/25" queryTableFieldId="16" dataDxfId="3"/>
-    <tableColumn id="17" uniqueName="17" name="Cond_15 2/30" queryTableFieldId="17" dataDxfId="2"/>
-    <tableColumn id="18" uniqueName="18" name="Cond_16 4/35" queryTableFieldId="18" dataDxfId="1"/>
-    <tableColumn id="19" uniqueName="19" name="Cond_17 7/40" queryTableFieldId="19" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Essai" queryTableFieldId="1" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="Cond_0 -7/-45" queryTableFieldId="2" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Cond_1 -4/-40" queryTableFieldId="3" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Cond_2 -2/-35" queryTableFieldId="4" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Cond_3 -1/-30" queryTableFieldId="5" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Cond_4 0/-25" queryTableFieldId="6" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Cond_5 1/-20" queryTableFieldId="7" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Cond_6 2/-15" queryTableFieldId="8" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Cond_7 4/-10" queryTableFieldId="9" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Cond_8 7/-5" queryTableFieldId="10" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="Cond_9 -7/0" queryTableFieldId="11" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="Cond_10 -4/5" queryTableFieldId="12" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="Cond_11 -2/10" queryTableFieldId="13" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="Cond_12 -1/15" queryTableFieldId="14" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="Cond_13 0/20" queryTableFieldId="15" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="Cond_14 1/25" queryTableFieldId="16" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="Cond_15 2/30" queryTableFieldId="17" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="Cond_16 4/35" queryTableFieldId="18" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="Cond_17 7/40" queryTableFieldId="19" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2122,10 +2134,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -2975,11 +2987,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3840,7 +3852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
